--- a/24-1posteamproj/24-1posteamproj/bin/Debug/재고관리.xlsx
+++ b/24-1posteamproj/24-1posteamproj/bin/Debug/재고관리.xlsx
@@ -2,48 +2,100 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\바탕 화면\응소실팀플\2024KWUASP\24-1posteamproj\24-1posteamproj\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06A259BA-DFE6-47DA-A47C-9C45E3C2865B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E24B339-0938-4C88-B23E-8F53F013C17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{B46B7F93-C479-45C1-8ADD-976FB062A30E}"/>
+    <workbookView xWindow="5490" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+  <si>
+    <t>비고</t>
+  </si>
   <si>
     <t>재고 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>재고 수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김밥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치즈</t>
+  </si>
+  <si>
+    <t>일반김밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당근, 오이, 단무지, 시금치 우엉, 햄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈김밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈 1장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참치김밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참치 + 깻잎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날치알김밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날치알 격주로 발주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈까스김밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매월 둘째주, 넷째주 발주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육덮밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50인분 이하 시 발주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치제육덮밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불고기덮밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50장 미만일 경우 발주 넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치찌개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>된장찌개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -51,35 +103,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캔참치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매월 둘째주 월요일에 발주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>날치알</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제육</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매월 둘째주, 넷째주 발주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불고기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낙지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재고 10인분 이하, 발주 넣기</t>
+    <t>뚝배기불고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙지돌솥밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/12 발주 신청 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오므라이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계란 2개 사용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -87,19 +127,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50장 미만일 경우 발주 넣기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>생선까스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>재고 10인분 이하시 발주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고치돈</t>
+    <t>매월에 1번 발주 신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구마치즈돈까스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주 신청 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떡볶이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고 10개 이하 발주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -107,11 +155,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>떡볶이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6/12 발주 신청 완료</t>
+    <t>80미만일 시 발주 신청</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -119,31 +163,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>80개 미만일 시 발주 신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떡만두국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>만두</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6/15 추가 발주 도착</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매월에 1번 발주 신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어묵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발주 신청 필요</t>
+    <t>비빔국수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소면 매주 월요일에 발주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치말이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라볶이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오뎅탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공기밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2우동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매월 둘째주에 발주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계란후라이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이스치즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/23 추가 발주 도착 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펩시 제로 +250 발주 신청 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -151,81 +235,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>재고 10개 이하 발주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콜라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80미만일 시 발주 신청</t>
+    <t>매주 일요일에 음료도착</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>환타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80개 미만일 시 발주 신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1박스 남았을 시 발주 넣기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당근, 오이, 단무지, 시금치 우엉, 햄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6/18 5:00 추가 5통 도착 예정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50인분 이하 시 발주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제로 콜라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>펩시 제로 +250 발주 신청 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멸치(육수용)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+      <name val="돋움"/>
+      <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -250,16 +282,215 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6182D6"/>
+          <bgColor rgb="FF6182D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF94A5DF"/>
+          <bgColor rgb="FF94A5DF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color rgb="FF6182D6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF6182D6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border>
+        <top style="thin">
+          <color rgb="FF6182D6"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF6182D6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="medium">
+          <color rgb="FF6182D6"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF6182D6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFAEBFEA"/>
+          <bgColor rgb="FFAEBFEA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFAEBFEA"/>
+          <bgColor rgb="FFAEBFEA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6182D6"/>
+          <bgColor rgb="FF6182D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6182D6"/>
+          <bgColor rgb="FF6182D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6182D6"/>
+          <bgColor rgb="FF6182D6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thick">
+          <color rgb="FFFFFFFF"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6182D6"/>
+          <bgColor rgb="FF6182D6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thick">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD7DFF4"/>
+          <bgColor rgb="FFD7DFF4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="totalRow" dxfId="11"/>
+      <tableStyleElement type="firstColumn" dxfId="10"/>
+      <tableStyleElement type="lastColumn" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
+    </tableStyle>
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -482,21 +713,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -558,23 +789,19 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADE7AD3-BE3B-432D-A400-9547EFE07D6A}">
-  <dimension ref="A1:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.25" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
@@ -583,13 +810,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -600,253 +827,353 @@
         <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>210</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>152</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>280</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>180</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23">
         <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24">
         <v>210</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27">
+        <v>300</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30">
+        <v>200</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31">
+        <v>210</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32">
+        <v>180</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33">
+        <v>240</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
--- a/24-1posteamproj/24-1posteamproj/bin/Debug/재고관리.xlsx
+++ b/24-1posteamproj/24-1posteamproj/bin/Debug/재고관리.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\바탕 화면\응소실팀플\2024KWUASP\24-1posteamproj\24-1posteamproj\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\WinForm\2024KWUASP\24-1posteamproj\24-1posteamproj\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E24B339-0938-4C88-B23E-8F53F013C17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BCD2A10-0E09-4500-86CB-CDEBC7E90322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -481,7 +481,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>

--- a/24-1posteamproj/24-1posteamproj/bin/Debug/재고관리.xlsx
+++ b/24-1posteamproj/24-1posteamproj/bin/Debug/재고관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\WinForm\2024KWUASP\24-1posteamproj\24-1posteamproj\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BCD2A10-0E09-4500-86CB-CDEBC7E90322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A5758F9-B5DF-40EB-B7C7-33178B89519D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/24-1posteamproj/24-1posteamproj/bin/Debug/재고관리.xlsx
+++ b/24-1posteamproj/24-1posteamproj/bin/Debug/재고관리.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\WinForm\2024KWUASP\24-1posteamproj\24-1posteamproj\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\2024KWUASP\24-1posteamproj\24-1posteamproj\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A5758F9-B5DF-40EB-B7C7-33178B89519D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18FFF790-CF22-4A9A-B205-88A45C16BBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>215</v>
+        <v>2199</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>

--- a/24-1posteamproj/24-1posteamproj/bin/Debug/재고관리.xlsx
+++ b/24-1posteamproj/24-1posteamproj/bin/Debug/재고관리.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\WinForm\2024KWUASP\24-1posteamproj\24-1posteamproj\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\바탕 화면\응소실팀플\2024KWUASP\24-1posteamproj\24-1posteamproj\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A5758F9-B5DF-40EB-B7C7-33178B89519D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DD6D588-62B0-450F-BD98-F9797BEB5521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5505" yWindow="3495" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,82 +31,38 @@
     <t>재고 수량</t>
   </si>
   <si>
-    <t>일반김밥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>당근, 오이, 단무지, 시금치 우엉, 햄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>치즈김밥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>치즈 1장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>참치김밥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>참치 + 깻잎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>날치알김밥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>날치알 격주로 발주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>돈까스김밥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>매월 둘째주, 넷째주 발주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제육덮밥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50인분 이하 시 발주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김치제육덮밥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불고기덮밥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50장 미만일 경우 발주 넣기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김치찌개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>된장찌개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>매주 월요일 발주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>뚝배기불고기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>낙지돌솥밥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고구마치즈돈까스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>발주 신청 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김치말이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>라볶이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,22 +151,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1/2우동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>매월 둘째주에 발주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>계란후라이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬라이스치즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6/23 추가 발주 도착 예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,6 +176,70 @@
   </si>
   <si>
     <t>환타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참치 김밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 김밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈 김밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날치알 김밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈가스 김밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육 덮밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치 제육 덮밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불고기 덮밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치 찌개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>된장 찌개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚝배기 불고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구마 치즈 돈까스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치말이 국수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2 우동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계란 후라이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이스 치즈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -247,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -256,6 +256,13 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -282,11 +289,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -797,8 +807,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -820,355 +830,355 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>213</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>215</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
         <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
+      <c r="A4" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B4">
         <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>210</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>18</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>19</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>152</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>21</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>280</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>29</v>
+      <c r="A17" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B17">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>180</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>290</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>42</v>
+      <c r="A24" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B24">
         <v>210</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>300</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>46</v>
+      <c r="A28" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B28">
         <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>48</v>
+      <c r="A29" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B29">
         <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>49</v>
+      <c r="A30" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B30">
         <v>200</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>210</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>180</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>240</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
